--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Bmp4-Rgmb.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Bmp4-Rgmb.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -91,7 +91,13 @@
     <t>Rgmb</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
     <t>M2</t>
+  </si>
+  <si>
+    <t>Neutro</t>
   </si>
 </sst>
 </file>
@@ -449,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -531,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.93194926871927</v>
+        <v>5.286854333333333</v>
       </c>
       <c r="H2">
-        <v>2.93194926871927</v>
+        <v>15.860563</v>
       </c>
       <c r="I2">
-        <v>0.3349712793043796</v>
+        <v>0.4075099150374557</v>
       </c>
       <c r="J2">
-        <v>0.3349712793043796</v>
+        <v>0.4075099150374557</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>7.86946760153019</v>
+        <v>8.646358666666666</v>
       </c>
       <c r="N2">
-        <v>7.86946760153019</v>
+        <v>25.939076</v>
       </c>
       <c r="O2">
-        <v>0.220538006231642</v>
+        <v>0.1920122657718527</v>
       </c>
       <c r="P2">
-        <v>0.220538006231642</v>
+        <v>0.1920122657718527</v>
       </c>
       <c r="Q2">
-        <v>23.07287977951643</v>
+        <v>45.71203878442088</v>
       </c>
       <c r="R2">
-        <v>23.07287977951643</v>
+        <v>411.4083490597879</v>
       </c>
       <c r="S2">
-        <v>0.07387389808265035</v>
+        <v>0.07824690211083705</v>
       </c>
       <c r="T2">
-        <v>0.07387389808265035</v>
+        <v>0.07824690211083704</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.93194926871927</v>
+        <v>5.286854333333333</v>
       </c>
       <c r="H3">
-        <v>2.93194926871927</v>
+        <v>15.860563</v>
       </c>
       <c r="I3">
-        <v>0.3349712793043796</v>
+        <v>0.4075099150374557</v>
       </c>
       <c r="J3">
-        <v>0.3349712793043796</v>
+        <v>0.4075099150374557</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>7.12756202599544</v>
+        <v>7.131051333333333</v>
       </c>
       <c r="N3">
-        <v>7.12756202599544</v>
+        <v>21.393154</v>
       </c>
       <c r="O3">
-        <v>0.1997464629246007</v>
+        <v>0.1583613838652608</v>
       </c>
       <c r="P3">
-        <v>0.1997464629246007</v>
+        <v>0.1583613838652608</v>
       </c>
       <c r="Q3">
-        <v>20.89765026986857</v>
+        <v>37.70082964285577</v>
       </c>
       <c r="R3">
-        <v>20.89765026986857</v>
+        <v>339.307466785702</v>
       </c>
       <c r="S3">
-        <v>0.06690932822237834</v>
+        <v>0.06453383408414633</v>
       </c>
       <c r="T3">
-        <v>0.06690932822237834</v>
+        <v>0.06453383408414633</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +661,52 @@
         <v>25</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.93194926871927</v>
+        <v>5.286854333333333</v>
       </c>
       <c r="H4">
-        <v>2.93194926871927</v>
+        <v>15.860563</v>
       </c>
       <c r="I4">
-        <v>0.3349712793043796</v>
+        <v>0.4075099150374557</v>
       </c>
       <c r="J4">
-        <v>0.3349712793043796</v>
+        <v>0.4075099150374557</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>4.42999662176467</v>
+        <v>1.531490333333333</v>
       </c>
       <c r="N4">
-        <v>4.42999662176467</v>
+        <v>4.594471</v>
       </c>
       <c r="O4">
-        <v>0.1241485030559016</v>
+        <v>0.0340102626143302</v>
       </c>
       <c r="P4">
-        <v>0.1241485030559016</v>
+        <v>0.03401026261433021</v>
       </c>
       <c r="Q4">
-        <v>12.98852535561176</v>
+        <v>8.096766305241445</v>
       </c>
       <c r="R4">
-        <v>12.98852535561176</v>
+        <v>72.87089674717301</v>
       </c>
       <c r="S4">
-        <v>0.04158618289235905</v>
+        <v>0.01385951922836726</v>
       </c>
       <c r="T4">
-        <v>0.04158618289235905</v>
+        <v>0.01385951922836726</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,60 +720,60 @@
         <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2.93194926871927</v>
+        <v>5.286854333333333</v>
       </c>
       <c r="H5">
-        <v>2.93194926871927</v>
+        <v>15.860563</v>
       </c>
       <c r="I5">
-        <v>0.3349712793043796</v>
+        <v>0.4075099150374557</v>
       </c>
       <c r="J5">
-        <v>0.3349712793043796</v>
+        <v>0.4075099150374557</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>16.2560187550456</v>
+        <v>4.621346333333332</v>
       </c>
       <c r="N5">
-        <v>16.2560187550456</v>
+        <v>13.864039</v>
       </c>
       <c r="O5">
-        <v>0.4555670277878557</v>
+        <v>0.1026276163861554</v>
       </c>
       <c r="P5">
-        <v>0.4555670277878557</v>
+        <v>0.1026276163861554</v>
       </c>
       <c r="Q5">
-        <v>47.66182230114268</v>
+        <v>24.43238488821744</v>
       </c>
       <c r="R5">
-        <v>47.66182230114268</v>
+        <v>219.891463993957</v>
       </c>
       <c r="S5">
-        <v>0.1526018701069919</v>
+        <v>0.04182177123401878</v>
       </c>
       <c r="T5">
-        <v>0.1526018701069919</v>
+        <v>0.04182177123401878</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>23</v>
@@ -776,60 +782,60 @@
         <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>2.66256953277748</v>
+        <v>5.286854333333333</v>
       </c>
       <c r="H6">
-        <v>2.66256953277748</v>
+        <v>15.860563</v>
       </c>
       <c r="I6">
-        <v>0.3041950050591866</v>
+        <v>0.4075099150374557</v>
       </c>
       <c r="J6">
-        <v>0.3041950050591866</v>
+        <v>0.4075099150374557</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>7.86946760153019</v>
+        <v>0.6145123333333333</v>
       </c>
       <c r="N6">
-        <v>7.86946760153019</v>
+        <v>1.843537</v>
       </c>
       <c r="O6">
-        <v>0.220538006231642</v>
+        <v>0.0136466586706575</v>
       </c>
       <c r="P6">
-        <v>0.220538006231642</v>
+        <v>0.01364665867065751</v>
       </c>
       <c r="Q6">
-        <v>20.95300467501376</v>
+        <v>3.248837192370111</v>
       </c>
       <c r="R6">
-        <v>20.95300467501376</v>
+        <v>29.239534731331</v>
       </c>
       <c r="S6">
-        <v>0.06708655992137726</v>
+        <v>0.005561148715424798</v>
       </c>
       <c r="T6">
-        <v>0.06708655992137726</v>
+        <v>0.005561148715424798</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
         <v>23</v>
@@ -838,55 +844,55 @@
         <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>2.66256953277748</v>
+        <v>5.286854333333333</v>
       </c>
       <c r="H7">
-        <v>2.66256953277748</v>
+        <v>15.860563</v>
       </c>
       <c r="I7">
-        <v>0.3041950050591866</v>
+        <v>0.4075099150374557</v>
       </c>
       <c r="J7">
-        <v>0.3041950050591866</v>
+        <v>0.4075099150374557</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>7.12756202599544</v>
+        <v>22.48548233333333</v>
       </c>
       <c r="N7">
-        <v>7.12756202599544</v>
+        <v>67.456447</v>
       </c>
       <c r="O7">
-        <v>0.1997464629246007</v>
+        <v>0.4993418126917433</v>
       </c>
       <c r="P7">
-        <v>0.1997464629246007</v>
+        <v>0.4993418126917434</v>
       </c>
       <c r="Q7">
-        <v>18.97762949339718</v>
+        <v>118.8774697110734</v>
       </c>
       <c r="R7">
-        <v>18.97762949339718</v>
+        <v>1069.897227399661</v>
       </c>
       <c r="S7">
-        <v>0.06076187629990355</v>
+        <v>0.2034867396646614</v>
       </c>
       <c r="T7">
-        <v>0.06076187629990355</v>
+        <v>0.2034867396646614</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,55 +906,55 @@
         <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>2.66256953277748</v>
+        <v>3.035834666666667</v>
       </c>
       <c r="H8">
-        <v>2.66256953277748</v>
+        <v>9.107504</v>
       </c>
       <c r="I8">
-        <v>0.3041950050591866</v>
+        <v>0.2340016669801247</v>
       </c>
       <c r="J8">
-        <v>0.3041950050591866</v>
+        <v>0.2340016669801247</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>4.42999662176467</v>
+        <v>8.646358666666666</v>
       </c>
       <c r="N8">
-        <v>4.42999662176467</v>
+        <v>25.939076</v>
       </c>
       <c r="O8">
-        <v>0.1241485030559016</v>
+        <v>0.1920122657718527</v>
       </c>
       <c r="P8">
-        <v>0.1241485030559016</v>
+        <v>0.1920122657718527</v>
       </c>
       <c r="Q8">
-        <v>11.79517403541777</v>
+        <v>26.24891538070044</v>
       </c>
       <c r="R8">
-        <v>11.79517403541777</v>
+        <v>236.240238426304</v>
       </c>
       <c r="S8">
-        <v>0.03776535451518044</v>
+        <v>0.04493119027124427</v>
       </c>
       <c r="T8">
-        <v>0.03776535451518044</v>
+        <v>0.04493119027124427</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,60 +968,60 @@
         <v>24</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>2.66256953277748</v>
+        <v>3.035834666666667</v>
       </c>
       <c r="H9">
-        <v>2.66256953277748</v>
+        <v>9.107504</v>
       </c>
       <c r="I9">
-        <v>0.3041950050591866</v>
+        <v>0.2340016669801247</v>
       </c>
       <c r="J9">
-        <v>0.3041950050591866</v>
+        <v>0.2340016669801247</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>16.2560187550456</v>
+        <v>7.131051333333333</v>
       </c>
       <c r="N9">
-        <v>16.2560187550456</v>
+        <v>21.393154</v>
       </c>
       <c r="O9">
-        <v>0.4555670277878557</v>
+        <v>0.1583613838652608</v>
       </c>
       <c r="P9">
-        <v>0.4555670277878557</v>
+        <v>0.1583613838652608</v>
       </c>
       <c r="Q9">
-        <v>43.28278026144371</v>
+        <v>21.64869284751289</v>
       </c>
       <c r="R9">
-        <v>43.28278026144371</v>
+        <v>194.838235627616</v>
       </c>
       <c r="S9">
-        <v>0.1385812143227254</v>
+        <v>0.03705682780975045</v>
       </c>
       <c r="T9">
-        <v>0.1385812143227254</v>
+        <v>0.03705682780975045</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
         <v>23</v>
@@ -1024,60 +1030,60 @@
         <v>24</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>3.15831897853001</v>
+        <v>3.035834666666667</v>
       </c>
       <c r="H10">
-        <v>3.15831897853001</v>
+        <v>9.107504</v>
       </c>
       <c r="I10">
-        <v>0.3608337156364338</v>
+        <v>0.2340016669801247</v>
       </c>
       <c r="J10">
-        <v>0.3608337156364338</v>
+        <v>0.2340016669801247</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>7.86946760153019</v>
+        <v>1.531490333333333</v>
       </c>
       <c r="N10">
-        <v>7.86946760153019</v>
+        <v>4.594471</v>
       </c>
       <c r="O10">
-        <v>0.220538006231642</v>
+        <v>0.0340102626143302</v>
       </c>
       <c r="P10">
-        <v>0.220538006231642</v>
+        <v>0.03401026261433021</v>
       </c>
       <c r="Q10">
-        <v>24.85428887683984</v>
+        <v>4.649351445598223</v>
       </c>
       <c r="R10">
-        <v>24.85428887683984</v>
+        <v>41.84416301038401</v>
       </c>
       <c r="S10">
-        <v>0.07957754822761436</v>
+        <v>0.007958458146185083</v>
       </c>
       <c r="T10">
-        <v>0.07957754822761436</v>
+        <v>0.007958458146185085</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
         <v>23</v>
@@ -1086,60 +1092,60 @@
         <v>24</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>3.15831897853001</v>
+        <v>3.035834666666667</v>
       </c>
       <c r="H11">
-        <v>3.15831897853001</v>
+        <v>9.107504</v>
       </c>
       <c r="I11">
-        <v>0.3608337156364338</v>
+        <v>0.2340016669801247</v>
       </c>
       <c r="J11">
-        <v>0.3608337156364338</v>
+        <v>0.2340016669801247</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>7.12756202599544</v>
+        <v>4.621346333333332</v>
       </c>
       <c r="N11">
-        <v>7.12756202599544</v>
+        <v>13.864039</v>
       </c>
       <c r="O11">
-        <v>0.1997464629246007</v>
+        <v>0.1026276163861554</v>
       </c>
       <c r="P11">
-        <v>0.1997464629246007</v>
+        <v>0.1026276163861554</v>
       </c>
       <c r="Q11">
-        <v>22.51111441735121</v>
+        <v>14.02964340540622</v>
       </c>
       <c r="R11">
-        <v>22.51111441735121</v>
+        <v>126.266790648656</v>
       </c>
       <c r="S11">
-        <v>0.07207525840231885</v>
+        <v>0.02401503331255713</v>
       </c>
       <c r="T11">
-        <v>0.07207525840231885</v>
+        <v>0.02401503331255713</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
         <v>23</v>
@@ -1148,60 +1154,60 @@
         <v>24</v>
       </c>
       <c r="D12" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>3.15831897853001</v>
+        <v>3.035834666666667</v>
       </c>
       <c r="H12">
-        <v>3.15831897853001</v>
+        <v>9.107504</v>
       </c>
       <c r="I12">
-        <v>0.3608337156364338</v>
+        <v>0.2340016669801247</v>
       </c>
       <c r="J12">
-        <v>0.3608337156364338</v>
+        <v>0.2340016669801247</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M12">
-        <v>4.42999662176467</v>
+        <v>0.6145123333333333</v>
       </c>
       <c r="N12">
-        <v>4.42999662176467</v>
+        <v>1.843537</v>
       </c>
       <c r="O12">
-        <v>0.1241485030559016</v>
+        <v>0.0136466586706575</v>
       </c>
       <c r="P12">
-        <v>0.1241485030559016</v>
+        <v>0.01364665867065751</v>
       </c>
       <c r="Q12">
-        <v>13.99134240534319</v>
+        <v>1.865557844627556</v>
       </c>
       <c r="R12">
-        <v>13.99134240534319</v>
+        <v>16.790020601648</v>
       </c>
       <c r="S12">
-        <v>0.04479696564836214</v>
+        <v>0.003193340877642629</v>
       </c>
       <c r="T12">
-        <v>0.04479696564836214</v>
+        <v>0.003193340877642629</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
         <v>23</v>
@@ -1213,52 +1219,424 @@
         <v>22</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>3.15831897853001</v>
+        <v>3.035834666666667</v>
       </c>
       <c r="H13">
-        <v>3.15831897853001</v>
+        <v>9.107504</v>
       </c>
       <c r="I13">
-        <v>0.3608337156364338</v>
+        <v>0.2340016669801247</v>
       </c>
       <c r="J13">
-        <v>0.3608337156364338</v>
+        <v>0.2340016669801247</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>16.2560187550456</v>
+        <v>22.48548233333333</v>
       </c>
       <c r="N13">
-        <v>16.2560187550456</v>
+        <v>67.456447</v>
       </c>
       <c r="O13">
-        <v>0.4555670277878557</v>
+        <v>0.4993418126917433</v>
       </c>
       <c r="P13">
-        <v>0.4555670277878557</v>
+        <v>0.4993418126917434</v>
       </c>
       <c r="Q13">
-        <v>51.3416925494003</v>
+        <v>68.26220676425422</v>
       </c>
       <c r="R13">
-        <v>51.3416925494003</v>
+        <v>614.359860878288</v>
       </c>
       <c r="S13">
-        <v>0.1643839433581385</v>
+        <v>0.1168468165627451</v>
       </c>
       <c r="T13">
-        <v>0.1643839433581385</v>
+        <v>0.1168468165627451</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>4.650871</v>
+      </c>
+      <c r="H14">
+        <v>13.952613</v>
+      </c>
+      <c r="I14">
+        <v>0.3584884179824196</v>
+      </c>
+      <c r="J14">
+        <v>0.3584884179824196</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>8.646358666666666</v>
+      </c>
+      <c r="N14">
+        <v>25.939076</v>
+      </c>
+      <c r="O14">
+        <v>0.1920122657718527</v>
+      </c>
+      <c r="P14">
+        <v>0.1920122657718527</v>
+      </c>
+      <c r="Q14">
+        <v>40.21309877839866</v>
+      </c>
+      <c r="R14">
+        <v>361.9178890055879</v>
+      </c>
+      <c r="S14">
+        <v>0.06883417338977137</v>
+      </c>
+      <c r="T14">
+        <v>0.06883417338977137</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>4.650871</v>
+      </c>
+      <c r="H15">
+        <v>13.952613</v>
+      </c>
+      <c r="I15">
+        <v>0.3584884179824196</v>
+      </c>
+      <c r="J15">
+        <v>0.3584884179824196</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>7.131051333333333</v>
+      </c>
+      <c r="N15">
+        <v>21.393154</v>
+      </c>
+      <c r="O15">
+        <v>0.1583613838652608</v>
+      </c>
+      <c r="P15">
+        <v>0.1583613838652608</v>
+      </c>
+      <c r="Q15">
+        <v>33.16559984571133</v>
+      </c>
+      <c r="R15">
+        <v>298.490398611402</v>
+      </c>
+      <c r="S15">
+        <v>0.056770721971364</v>
+      </c>
+      <c r="T15">
+        <v>0.05677072197136402</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>4.650871</v>
+      </c>
+      <c r="H16">
+        <v>13.952613</v>
+      </c>
+      <c r="I16">
+        <v>0.3584884179824196</v>
+      </c>
+      <c r="J16">
+        <v>0.3584884179824196</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M16">
+        <v>1.531490333333333</v>
+      </c>
+      <c r="N16">
+        <v>4.594471</v>
+      </c>
+      <c r="O16">
+        <v>0.0340102626143302</v>
+      </c>
+      <c r="P16">
+        <v>0.03401026261433021</v>
+      </c>
+      <c r="Q16">
+        <v>7.122763978080333</v>
+      </c>
+      <c r="R16">
+        <v>64.104875802723</v>
+      </c>
+      <c r="S16">
+        <v>0.01219228523977786</v>
+      </c>
+      <c r="T16">
+        <v>0.01219228523977787</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17" t="s">
+        <v>26</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>4.650871</v>
+      </c>
+      <c r="H17">
+        <v>13.952613</v>
+      </c>
+      <c r="I17">
+        <v>0.3584884179824196</v>
+      </c>
+      <c r="J17">
+        <v>0.3584884179824196</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>4.621346333333332</v>
+      </c>
+      <c r="N17">
+        <v>13.864039</v>
+      </c>
+      <c r="O17">
+        <v>0.1026276163861554</v>
+      </c>
+      <c r="P17">
+        <v>0.1026276163861554</v>
+      </c>
+      <c r="Q17">
+        <v>21.49328564265633</v>
+      </c>
+      <c r="R17">
+        <v>193.439570783907</v>
+      </c>
+      <c r="S17">
+        <v>0.0367908118395795</v>
+      </c>
+      <c r="T17">
+        <v>0.0367908118395795</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" t="s">
+        <v>27</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>4.650871</v>
+      </c>
+      <c r="H18">
+        <v>13.952613</v>
+      </c>
+      <c r="I18">
+        <v>0.3584884179824196</v>
+      </c>
+      <c r="J18">
+        <v>0.3584884179824196</v>
+      </c>
+      <c r="K18">
+        <v>2</v>
+      </c>
+      <c r="L18">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M18">
+        <v>0.6145123333333333</v>
+      </c>
+      <c r="N18">
+        <v>1.843537</v>
+      </c>
+      <c r="O18">
+        <v>0.0136466586706575</v>
+      </c>
+      <c r="P18">
+        <v>0.01364665867065751</v>
+      </c>
+      <c r="Q18">
+        <v>2.858017590242333</v>
+      </c>
+      <c r="R18">
+        <v>25.722158312181</v>
+      </c>
+      <c r="S18">
+        <v>0.004892169077590078</v>
+      </c>
+      <c r="T18">
+        <v>0.004892169077590079</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" t="s">
+        <v>24</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>4.650871</v>
+      </c>
+      <c r="H19">
+        <v>13.952613</v>
+      </c>
+      <c r="I19">
+        <v>0.3584884179824196</v>
+      </c>
+      <c r="J19">
+        <v>0.3584884179824196</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>22.48548233333333</v>
+      </c>
+      <c r="N19">
+        <v>67.456447</v>
+      </c>
+      <c r="O19">
+        <v>0.4993418126917433</v>
+      </c>
+      <c r="P19">
+        <v>0.4993418126917434</v>
+      </c>
+      <c r="Q19">
+        <v>104.5770777051123</v>
+      </c>
+      <c r="R19">
+        <v>941.1936993460109</v>
+      </c>
+      <c r="S19">
+        <v>0.1790082564643368</v>
+      </c>
+      <c r="T19">
+        <v>0.1790082564643368</v>
       </c>
     </row>
   </sheetData>
